--- a/biology/Médecine/1209_en_santé_et_médecine/1209_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1209_en_santé_et_médecine/1209_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1209_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1209_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1209 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1209_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1209_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des maîtres et des étudiants qui ont quitté Oxford après qu'écoliers et bourgeois s'y sont opposés en un conflit meurtrier, fondent l'université de Cambridge, dont John Blyth (1503-1557) n'occupera cependant qu'en 1540 la première chaire de médecine, créée par Henri VIII[1].
-Fondation de la maison-Dieu de Troissy, dans le comté de Champagne, qui deviendra abbaye en 1232, et sera confiée à l'ordre de Citeaux en 1237 par le pape Grégoire IX[2].
-Fondation de l'hôtel-Dieu de Coutances, en Normandie, par Hugues de Morville[3].
-Fondation à Ax dans le comté de Foix d'une léproserie « élevée sur les sources où domine le principe sulfureux, afin d'y baigner les lépreux[4] ».
-À la Ville l'Évêque, hameau situé sur l'actuel quartier parisien de la Madeleine, Robert II, comte de Dreux, fonde un hôpital et un collège destinés à l'entretien d'écoliers indigents[5].
-L'hôpital Saint-Antoine est attesté à Sens, ville du domaine royal[6].
-L'aumônerie des Bretons est attestée à Étampes, bonne ville de France[7].
-1205-1209 : transfert et agrandissement de l'hôtel-Dieu de Laon[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Des maîtres et des étudiants qui ont quitté Oxford après qu'écoliers et bourgeois s'y sont opposés en un conflit meurtrier, fondent l'université de Cambridge, dont John Blyth (1503-1557) n'occupera cependant qu'en 1540 la première chaire de médecine, créée par Henri VIII.
+Fondation de la maison-Dieu de Troissy, dans le comté de Champagne, qui deviendra abbaye en 1232, et sera confiée à l'ordre de Citeaux en 1237 par le pape Grégoire IX.
+Fondation de l'hôtel-Dieu de Coutances, en Normandie, par Hugues de Morville.
+Fondation à Ax dans le comté de Foix d'une léproserie « élevée sur les sources où domine le principe sulfureux, afin d'y baigner les lépreux ».
+À la Ville l'Évêque, hameau situé sur l'actuel quartier parisien de la Madeleine, Robert II, comte de Dreux, fonde un hôpital et un collège destinés à l'entretien d'écoliers indigents.
+L'hôpital Saint-Antoine est attesté à Sens, ville du domaine royal.
+L'aumônerie des Bretons est attestée à Étampes, bonne ville de France.
+1205-1209 : transfert et agrandissement de l'hôtel-Dieu de Laon,.
 1209-1210 : fondation de l'ordre des Frères mineurs.
-Entre 1209 et 1211, l'hôpital de l'abbaye Saint-Martial, à Limoges, est détruit par un incendie et aussitôt rebâti grâce à un don de Luce de Saint-Hilaire[10],[11].</t>
+Entre 1209 et 1211, l'hôpital de l'abbaye Saint-Martial, à Limoges, est détruit par un incendie et aussitôt rebâti grâce à un don de Luce de Saint-Hilaire,.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1209_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1209_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1209 : Ahmed ibn al-Hasan ibn al-Ahnaf, Kitâb al-Baitara, traité d'élevage et de médecine vétérinaire, sur le cheval, le zébu, le mouton et le dromadaire[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1209 : Ahmed ibn al-Hasan ibn al-Ahnaf, Kitâb al-Baitara, traité d'élevage et de médecine vétérinaire, sur le cheval, le zébu, le mouton et le dromadaire.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1209_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1209_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Novembre 1207-novembre 1209 : Rigord (né entre 1145 et 1150), moine de Saint-Denis, médecin et historien.
 </t>
